--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.024</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.843</v>
+        <v>16.151</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.266</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.654</v>
+        <v>13.311</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.132</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.166</v>
+        <v>5.105</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.171426710019766</v>
+        <v>6.873382544960599</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.85400069820287</v>
+        <v>8.411826414332182</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.10247672061127</v>
+        <v>13.61872219975486</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.701374549124751</v>
+        <v>-2.277619829898608</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.98472099377305</v>
+        <v>13.61252414542684</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.7308451773178</v>
+        <v>15.02456430501274</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.209397066525721</v>
+        <v>1.297420036725821</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.95583066258234</v>
+        <v>23.34849630495999</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.29267001880498</v>
+        <v>25.61508752249143</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.9136978731217</v>
+        <v>23.22803984747405</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.22356269842255</v>
+        <v>27.44718570132646</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.86330017214243</v>
+        <v>31.36289440444686</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.073606042304519</v>
+        <v>5.245741956444096</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.60798040652453</v>
+        <v>15.26513180122241</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.57349088346775</v>
+        <v>17.61113975205216</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.169975774800463</v>
+        <v>10.8892997787559</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.48729596569766</v>
+        <v>25.82749252546096</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.75764534129621</v>
+        <v>40.1203664899142</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.08071647251308534</v>
+        <v>0.06458753834572661</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.20839679691883</v>
+        <v>16.11479843789518</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.0960587243596</v>
+        <v>30.47433828481561</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.220861830120324</v>
+        <v>2.809236062925283</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.64477178239697</v>
+        <v>28.54648662042445</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.97695407783945</v>
+        <v>54.82108804692783</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.00279846966524</v>
+        <v>33.60564468847291</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.02586212055694</v>
+        <v>52.7200669888803</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40.79272024207906</v>
+        <v>68.98835815980181</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.001223451047977</v>
+        <v>6.981416174432862</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.71800292451626</v>
+        <v>42.82645557046435</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>37.41476223169069</v>
+        <v>57.44211801138782</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.43976322302584</v>
+        <v>14.68941957208336</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.86957089283617</v>
+        <v>33.66271023965639</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.51704575231486</v>
+        <v>43.92657660900247</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.608130520655507</v>
+        <v>1.128744234377937</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.51860103538078</v>
+        <v>28.04339102018766</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.65916345777194</v>
+        <v>37.27862520302506</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.56442038697973</v>
+        <v>3.831859229854803</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.02552185608466</v>
+        <v>44.33932827090858</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.78058555385126</v>
+        <v>60.69781745215064</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.73335985857202</v>
+        <v>58.67942452321456</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>46.06490537921347</v>
+        <v>75.10724868276881</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>51.18707939885175</v>
+        <v>83.9556584073682</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>15.71041706014128</v>
+        <v>15.9347769193203</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.04067482413329</v>
+        <v>61.80918851844976</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.09368160713107</v>
+        <v>69.79237788574837</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.99610316690854</v>
+        <v>6.564989393175996</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.02834193572971</v>
+        <v>32.06555659041391</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.84966231823999</v>
+        <v>41.80613130680881</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.755073307188624</v>
+        <v>1.065774019378757</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.04261079745753</v>
+        <v>41.4643622813191</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.24859297522905</v>
+        <v>43.52284324258378</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.97067308076432</v>
+        <v>6.853669335274592</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.0757170572363</v>
+        <v>64.1316745272472</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.99365008498686</v>
+        <v>69.89466660216422</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.02219625080284</v>
+        <v>61.39413363193941</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.73348170789089</v>
+        <v>70.81159373827667</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.01451241144416</v>
+        <v>66.42217084871081</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.165446847630896</v>
+        <v>6.103384523898828</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.37409925252653</v>
+        <v>47.25075396268947</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.84307921328313</v>
+        <v>54.47638844831765</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.144889165780832</v>
+        <v>8.501221210609003</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.64079540188676</v>
+        <v>34.26076961880673</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.46933445676677</v>
+        <v>40.95872858060287</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.600813631533207</v>
+        <v>-2.391417870748032</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.30064537845788</v>
+        <v>24.47463136325952</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.62811459221435</v>
+        <v>35.39243745636462</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.09388731751615</v>
+        <v>0.007091695902229134</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.70391182421834</v>
+        <v>44.19531480302415</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.60178224741086</v>
+        <v>60.54279027676886</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>30.28241342063215</v>
+        <v>50.82253918548032</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>39.59307601111167</v>
+        <v>65.62738830782025</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44.00053658221488</v>
+        <v>74.03659487929147</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.492613112837368</v>
+        <v>6.252969394244293</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.60275846349889</v>
+        <v>56.30383380869699</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.81369301383365</v>
+        <v>62.12147486408392</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.00836489427554</v>
+        <v>9.678472379922798</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.59806015591595</v>
+        <v>36.62366750712947</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.8053938735499</v>
+        <v>49.07388742506959</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8.857867235153286</v>
+        <v>-1.772730042698523</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.13486354814823</v>
+        <v>34.09117641435749</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.72358538147353</v>
+        <v>43.13942862173465</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.92819046164667</v>
+        <v>3.183499890931333</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.56002267436093</v>
+        <v>59.04712846842088</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.88533339931001</v>
+        <v>80.17028684628973</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>39.51249899929715</v>
+        <v>69.30908163792787</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>49.16699798773553</v>
+        <v>86.835342467269</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>53.8943916892304</v>
+        <v>92.21490107377556</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.74257803685106</v>
+        <v>6.157481741623446</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.55005310265614</v>
+        <v>70.1332423958445</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>49.06314128329708</v>
+        <v>76.02042521240496</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6.763899505185915</v>
+        <v>15.28704024354077</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.61477810430564</v>
+        <v>33.15388483765788</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.44562167338247</v>
+        <v>38.65195692507839</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.169275568414193</v>
+        <v>1.749176129761373</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.26022924564779</v>
+        <v>34.21230319971268</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.46461599627674</v>
+        <v>34.91321381078978</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.46970200797517</v>
+        <v>5.823023291833767</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.38403326570298</v>
+        <v>58.96527411718392</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.3120088193071</v>
+        <v>57.28425121974956</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.34544956494523</v>
+        <v>50.54276298538076</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38.01094464390521</v>
+        <v>60.15450436562861</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.20460526695943</v>
+        <v>56.77281520209404</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.717901231730437</v>
+        <v>11.24849242599559</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.61732536037061</v>
+        <v>38.13402822871137</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.12896849473198</v>
+        <v>40.98725303535254</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>9.506790026559464</v>
+        <v>18.53502853820899</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.83026288771964</v>
+        <v>44.91296024090177</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.66526480937444</v>
+        <v>45.89176059689923</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.639083543442766</v>
+        <v>3.506972363784342</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.15419125531964</v>
+        <v>34.41399778039461</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.47401195981668</v>
+        <v>38.93862172429577</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.25191302760972</v>
+        <v>4.760435878494423</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.6799481438015</v>
+        <v>57.85227447664859</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.58470738734648</v>
+        <v>65.34024115141271</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.24404219829708</v>
+        <v>58.57935807671416</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.51395819650992</v>
+        <v>70.09169749564462</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.82326937700602</v>
+        <v>74.002526190598</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>10.66323867895338</v>
+        <v>19.02905940681406</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.4724293425132</v>
+        <v>59.22636080734036</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.72344548665079</v>
+        <v>61.75031732440424</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>15.37548850019528</v>
+        <v>18.3608244565274</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.82429241133321</v>
+        <v>45.35444819463311</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.03460138577733</v>
+        <v>49.22672104888917</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.928288495676636</v>
+        <v>1.350322799094766</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.05443973633655</v>
+        <v>40.77010487171354</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.63702581677106</v>
+        <v>41.60024502588163</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.11389305217156</v>
+        <v>3.58179043101558</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>40.5955213193283</v>
+        <v>68.35383815610523</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>46.9241165994155</v>
+        <v>75.88946789675857</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.51238292876773</v>
+        <v>76.34583366929843</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.13071742995999</v>
+        <v>83.80489328222791</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.77525210108297</v>
+        <v>90.92508834324619</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>17.89592833767758</v>
+        <v>16.12443630564491</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.45451219198792</v>
+        <v>73.23706607172136</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.00077638777647</v>
+        <v>75.31710921323042</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4.553054927318879</v>
+        <v>9.468006455300173</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.85028179714375</v>
+        <v>11.66234585751014</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.8875206637852</v>
+        <v>16.01577916761807</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.3595848395855423</v>
+        <v>-2.3393086358201</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.88839099177219</v>
+        <v>12.48808255056052</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.4180157743191</v>
+        <v>12.38643388151788</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>8.565409268885343</v>
+        <v>4.772484672950402</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.92528600735083</v>
+        <v>26.03986662661628</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.04653617414721</v>
+        <v>27.10286179827891</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.6749270973044</v>
+        <v>22.97204867404217</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.79871780330429</v>
+        <v>27.08163259572474</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.33981331207746</v>
+        <v>33.77597350644351</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7.248435657094383</v>
+        <v>49.82112623381188</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.28246104167273</v>
+        <v>62.88721539930492</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.95460258991843</v>
+        <v>59.63425091550995</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.298532607572117</v>
+        <v>9.112360489276167</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.23075049325614</v>
+        <v>24.50345338324853</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.29261472135727</v>
+        <v>38.43801941503209</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.030812817248577</v>
+        <v>-0.4829266788504896</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.88435261708755</v>
+        <v>11.22086754975605</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.55796607410753</v>
+        <v>28.6204038864296</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.36090277853538</v>
+        <v>29.12758641179311</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.48045341057847</v>
+        <v>53.12905462962912</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.53270062533592</v>
+        <v>29.7264252271762</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>37.35692020204678</v>
+        <v>44.30261318266479</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.0298649882703</v>
+        <v>59.80663756419632</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>9.932800735366641</v>
+        <v>13.21596372372183</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.13485540032477</v>
+        <v>44.1502678017703</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.54838786518399</v>
+        <v>53.75962247860157</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.66884251475173</v>
+        <v>19.60232620710625</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.68575163087378</v>
+        <v>31.45590752830535</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.1105676939102</v>
+        <v>43.543727595818</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>8.755699658903321</v>
+        <v>1.439960709330382</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.19517953423795</v>
+        <v>17.35892885427335</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.10552160167008</v>
+        <v>29.36105641267271</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.72307159392241</v>
+        <v>8.472418636247344</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.76999514661207</v>
+        <v>41.17969399477022</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.29809629623389</v>
+        <v>60.74447280775635</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.29693610145064</v>
+        <v>44.54384033821142</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.41436105801868</v>
+        <v>58.90351395700453</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.42188511136089</v>
+        <v>72.34234015733084</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>17.70164375541068</v>
+        <v>27.44735592390184</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.48038412578939</v>
+        <v>59.77447253835267</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.23176751856496</v>
+        <v>69.9820576119907</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>6.98026834341416</v>
+        <v>9.302168978795713</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.02651184902313</v>
+        <v>27.72440047009789</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.06920740797098</v>
+        <v>31.83257813873896</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.29396284024283</v>
+        <v>1.073067437662164</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.39660884080077</v>
+        <v>33.70338025055497</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.91229202693575</v>
+        <v>35.879342505951</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>11.71938217914332</v>
+        <v>8.525279184070921</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.83487534090541</v>
+        <v>62.66531744102249</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.9653415221183</v>
+        <v>61.57724238642299</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.30111074510826</v>
+        <v>50.6298933978964</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.73184619846979</v>
+        <v>59.08262143780614</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.24111350909305</v>
+        <v>59.1539350115949</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>9.929508592473773</v>
+        <v>13.40312858333171</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.8321577248331</v>
+        <v>26.62684729956298</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.53163076724162</v>
+        <v>24.93688488033865</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>11.12664025297086</v>
+        <v>20.41462504015941</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.78599898914235</v>
+        <v>46.55482447985865</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.82756957687636</v>
+        <v>45.85016053020661</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5.071071738234089</v>
+        <v>3.986646674821934</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.757859934371</v>
+        <v>33.92988369553372</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.39088243585875</v>
+        <v>41.85434292364063</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.65869211597699</v>
+        <v>59.60532581068549</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.76074994294262</v>
+        <v>67.26787962027234</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.53168265971343</v>
+        <v>62.65128658050808</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>41.65552101011122</v>
+        <v>74.89969437178273</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>46.2817734153931</v>
+        <v>79.6351341140263</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>13.04556890730132</v>
+        <v>32.24314724013743</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.09012445686903</v>
+        <v>65.96144325768857</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.50328306435524</v>
+        <v>67.25776658774235</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.75393037474207</v>
+        <v>21.17260166926418</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.46705292857018</v>
+        <v>43.05912913655418</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>41.91140205271999</v>
+        <v>46.68748924731065</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>11.05871568439319</v>
+        <v>-0.8270450025041463</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.29350466115899</v>
+        <v>31.19695833554279</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.20116414124889</v>
+        <v>36.62738027303499</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.4843046300386</v>
+        <v>6.136735814032608</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>41.2330747029477</v>
+        <v>61.50233654433133</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.785676223701</v>
+        <v>71.95164212112289</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.51702106989006</v>
+        <v>73.96624170020728</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.9405389786602</v>
+        <v>82.19363993317856</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.92845822878029</v>
+        <v>84.93135873764668</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>20.05666166715834</v>
+        <v>32.21428680169554</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>42.66627097805551</v>
+        <v>72.01583104368191</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>51.45814846823139</v>
+        <v>77.06770295715275</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.04064296358269</v>
+        <v>1.043737653616951</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>47.59824145630513</v>
+        <v>18.10631736668205</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>52.809333535024</v>
+        <v>28.76522072067238</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.48205673737295</v>
+        <v>2.012204401597128</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>45.22930707914964</v>
+        <v>37.99794990051275</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>50.80585237127625</v>
+        <v>37.34485983879303</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>38.81778213964638</v>
+        <v>7.528644975284823</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>55.44268851056299</v>
+        <v>68.00765175559681</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>60.7375310473729</v>
+        <v>65.15896104344804</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.47777293996346</v>
+        <v>51.15838843095982</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>61.46792798273923</v>
+        <v>70.23658983860641</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>65.33481649169542</v>
+        <v>74.87906823517481</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.64377159138212</v>
+        <v>2.993142848084066</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.09764434086779</v>
+        <v>5.688834109713607</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>60.67552940072605</v>
+        <v>8.899731040292142</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>33.86288328794172</v>
+        <v>13.94907983799088</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>50.88735425529066</v>
+        <v>45.70232572372385</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>56.08667124757449</v>
+        <v>46.9071200425776</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.07441299580528</v>
+        <v>2.254789038899776</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>47.25174782163108</v>
+        <v>38.18715364288424</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>52.92302939399347</v>
+        <v>43.92624387107469</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.70162584628255</v>
+        <v>4.606499628470974</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>57.82959273184977</v>
+        <v>66.62328584284589</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>63.08690205608234</v>
+        <v>69.62423413091723</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>55.45932682161121</v>
+        <v>54.27841196128541</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>64.02463186462589</v>
+        <v>71.21350144245338</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>68.00098156853669</v>
+        <v>80.21159291569246</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.69300295211193</v>
+        <v>18.35427637554681</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>56.05457297941986</v>
+        <v>68.94739665662119</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>63.36822802630687</v>
+        <v>70.86172895265486</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>37.9820699085106</v>
+        <v>16.87388324684234</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.43618215061095</v>
+        <v>-1.11148911853638</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>52.99362406523549</v>
+        <v>37.51273854427188</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>58.90795010524013</v>
+        <v>40.83615293324476</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.45132801585046</v>
+        <v>4.132400226764322</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>64.4565119084111</v>
+        <v>70.00758552120975</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>70.11885520696661</v>
+        <v>76.5414911010043</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>62.54481679787857</v>
+        <v>70.67343075339124</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>71.40482358549963</v>
+        <v>87.00044328492532</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>75.67380419530629</v>
+        <v>91.0116551940848</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.0067693688698</v>
+        <v>15.49943883392062</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>62.84090198463821</v>
+        <v>74.39721162619695</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>70.46235946302193</v>
+        <v>76.77848759770144</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>17.76706114251405</v>
+        <v>7.055988362477969</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.30248545403986</v>
+        <v>3.640213061362545</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>38.98905535383899</v>
+        <v>9.788338094691657</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>14.49864834738619</v>
+        <v>-2.087714379252109</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.13344906935272</v>
+        <v>8.111700204567502</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.2369294305156</v>
+        <v>7.694361849766764</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.49946815208473</v>
+        <v>1.415104383495322</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.07727709414117</v>
+        <v>18.1225477462702</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>44.84542913931861</v>
+        <v>20.67692920748154</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.4995651514778</v>
+        <v>23.31481291616928</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>46.13167894284862</v>
+        <v>29.19372609152105</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>50.23594490002753</v>
+        <v>29.18927265910764</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.28384160452504</v>
+        <v>2.79200037575055</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.58716574348604</v>
+        <v>8.117287875352215</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>46.81210577298779</v>
+        <v>9.932951861162866</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.61371923904587</v>
+        <v>9.46749516399812</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.66738677311601</v>
+        <v>23.95192522276551</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42.39958261506772</v>
+        <v>35.60791132023073</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.10180283567212</v>
+        <v>1.919952146447759</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.21301789136579</v>
+        <v>18.25207392538235</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.46848098345527</v>
+        <v>29.6617286372279</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.42675954056908</v>
+        <v>5.661516058621348</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.5622142146575</v>
+        <v>33.19824692877691</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>47.35271773241601</v>
+        <v>52.94856344734457</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>40.55584077183639</v>
+        <v>35.3525379278161</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>48.80503032688254</v>
+        <v>52.48186421265001</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>53.03204495024609</v>
+        <v>59.91552170479186</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.27091678346952</v>
+        <v>7.577266272600863</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.58757214683112</v>
+        <v>41.92142036177619</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.58657900327093</v>
+        <v>52.10749638530186</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.75622972815349</v>
+        <v>9.423696462472872</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>43.90656664840122</v>
+        <v>28.37457171621137</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.92728439540471</v>
+        <v>40.29069555706776</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.71708549491602</v>
+        <v>0.4508846348486522</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>40.3918844571802</v>
+        <v>28.33388451381814</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.83464169814035</v>
+        <v>36.24543312075934</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.53320585786308</v>
+        <v>3.782190526350451</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>50.69821643313719</v>
+        <v>48.25326798580484</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>56.81680610723649</v>
+        <v>62.90846671123101</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.93129680360501</v>
+        <v>60.30383046054271</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>58.50177974327264</v>
+        <v>72.7609437466952</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>63.01909086244085</v>
+        <v>77.05476950619524</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.72736733309564</v>
+        <v>10.19076709193154</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.64695054852464</v>
+        <v>59.89520478494966</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.89022412255832</v>
+        <v>71.02443618273243</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>21.84748018241655</v>
+        <v>3.308156211904375</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>38.14011227634852</v>
+        <v>6.472097108880263</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>43.99844508941064</v>
+        <v>8.341578887274903</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>17.3499702017753</v>
+        <v>-1.346364467452648</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.65794650365068</v>
+        <v>9.486015305473227</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>39.97423552763375</v>
+        <v>9.373103765437577</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.12958380343327</v>
+        <v>-0.7233476172736424</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.49144266920011</v>
+        <v>17.13456436907386</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.43640277127585</v>
+        <v>15.10665795916657</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>42.55804961942805</v>
+        <v>14.38563949413746</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>50.65692835896884</v>
+        <v>16.7113723391141</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>55.05948248073993</v>
+        <v>21.06417822681185</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.65884899947884</v>
+        <v>6.055040732134646</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.66262461476168</v>
+        <v>10.9685456824725</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>51.06771428542362</v>
+        <v>11.20902761645808</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.47643398707764</v>
+        <v>1.445997666826688</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.36986769919992</v>
+        <v>6.62086302899203</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>48.22721020705899</v>
+        <v>14.994737327089</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.64624155162439</v>
+        <v>-1.402000286231665</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.52631020986254</v>
+        <v>0.2114599975795777</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.95642437737749</v>
+        <v>10.3552529036303</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.78326159816003</v>
+        <v>0.7919457968388492</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.78654449403637</v>
+        <v>10.00541254190462</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>52.7041194874479</v>
+        <v>28.21490848810259</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>45.30598545340491</v>
+        <v>13.84234160496206</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>54.08019423824297</v>
+        <v>24.9739778054145</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58.59486303288762</v>
+        <v>41.20370889670045</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.28236362723911</v>
+        <v>0.2398495039093156</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>46.38876185501374</v>
+        <v>12.57455045779544</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>54.52123092236305</v>
+        <v>13.09466269683432</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.52398290463191</v>
+        <v>4.078395721008125</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>48.44922187578033</v>
+        <v>5.924437735707432</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>54.69796108644567</v>
+        <v>25.41368400999335</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.02437253198609</v>
+        <v>-2.836541802052334</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>43.42095275035328</v>
+        <v>4.088530983106356</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>50.1169790560774</v>
+        <v>22.31045478022924</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.71591211467759</v>
+        <v>-1.08493392664246</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>54.67776303459006</v>
+        <v>14.1448363459319</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>61.03282892765351</v>
+        <v>44.65098698041244</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>53.6164889687492</v>
+        <v>21.8877257601873</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>62.68231879644964</v>
+        <v>42.84644098478765</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>67.56086770806309</v>
+        <v>66.73262047728231</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.68487747913652</v>
+        <v>-2.497854834316886</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.32070392924784</v>
+        <v>14.57681322067357</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>62.81430102210871</v>
+        <v>29.28418601640384</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>27.4171463538468</v>
+        <v>9.471707549009416</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>44.76357463380678</v>
+        <v>23.90018512704195</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.21841661659933</v>
+        <v>38.61298289642281</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.60337306137465</v>
+        <v>3.214490817823577</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>42.24172254087132</v>
+        <v>47.37239150167683</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>48.02404811364075</v>
+        <v>47.01108045500732</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.91704132761911</v>
+        <v>7.474925965799564</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>52.32217325796661</v>
+        <v>68.62517147752752</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>57.86938005183836</v>
+        <v>71.64226533033919</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>50.70026101430548</v>
+        <v>63.86483409185966</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>59.0248757633222</v>
+        <v>71.26331018046199</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>62.92419988385548</v>
+        <v>68.08267546303334</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.19049431675473</v>
+        <v>16.60118376604139</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>50.59851600705224</v>
+        <v>38.7823615768273</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>58.75250252969846</v>
+        <v>63.82666120535831</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.24274067154955</v>
+        <v>10.69176568117931</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>47.01579447160694</v>
+        <v>33.60143916587576</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>52.45677672712915</v>
+        <v>35.03361919309408</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.06613441527479</v>
+        <v>-0.820922047570857</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>43.07917870322706</v>
+        <v>31.10374189070129</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>48.95767008070871</v>
+        <v>32.23337051550229</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.62963766201706</v>
+        <v>1.556421073582626</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>53.50026288101974</v>
+        <v>52.24775229465745</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>59.0080710968049</v>
+        <v>57.61436418674431</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>51.56945892893108</v>
+        <v>49.40217109245032</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>60.46895351227641</v>
+        <v>59.34274470298438</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>64.46258330908383</v>
+        <v>63.18227746700683</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.16394008165162</v>
+        <v>16.53740001383262</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>52.44907389153143</v>
+        <v>55.67361413657547</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.29048241006247</v>
+        <v>58.22368899831362</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>33.9945317663021</v>
+        <v>12.09140486037522</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>52.81785477551129</v>
+        <v>35.17854161067152</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.58910900647247</v>
+        <v>42.12069699611708</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.22677413824727</v>
+        <v>-0.562163294469034</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49.7526718040002</v>
+        <v>38.71803243916207</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.84320896753391</v>
+        <v>39.59021015472764</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.21944825079431</v>
+        <v>4.365435910058959</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>61.07180576335821</v>
+        <v>64.91543735381656</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>66.95414751328777</v>
+        <v>74.76522399778104</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>59.513571121136</v>
+        <v>70.7390288544587</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>68.75246160516599</v>
+        <v>80.54668382499489</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>73.05116941637134</v>
+        <v>82.71641781165715</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>37.21258628913357</v>
+        <v>14.85811868308184</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>60.11507122954082</v>
+        <v>70.82113318824702</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>68.22999301362417</v>
+        <v>77.6494968192404</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.627841908084505</v>
+        <v>6.993211066300578</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.10680298337478</v>
+        <v>6.022516368346121</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.06552423761801</v>
+        <v>12.2927964278286</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2.274923064241879</v>
+        <v>-0.1366895122863916</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.81683680082947</v>
+        <v>3.345700261670483</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.23593844657214</v>
+        <v>8.388658322622678</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.3073228515516</v>
+        <v>2.127216271154595</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.84835133374753</v>
+        <v>12.14790342048896</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.8961877503892</v>
+        <v>18.66184687463899</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.77900950668936</v>
+        <v>16.7386690425469</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.4823412211001</v>
+        <v>19.54183872602598</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.83614639232027</v>
+        <v>23.36711351322281</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>7.756509512772258</v>
+        <v>4.719210755423379</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.99023933723302</v>
+        <v>11.25754931797357</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.37249140076095</v>
+        <v>9.938757995369816</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>9.189628401873385</v>
+        <v>7.309485808056738</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.17685882620745</v>
+        <v>13.47520811880331</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.17692646066661</v>
+        <v>29.51668337884321</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>3.695298563317952</v>
+        <v>1.003130861327364</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.70868973554857</v>
+        <v>5.02356529326077</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.27231588765475</v>
+        <v>23.2540948585456</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>12.02805868692104</v>
+        <v>1.95136856839418</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.11626825455299</v>
+        <v>11.8765324257612</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.18072081066962</v>
+        <v>41.18054409575829</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.59790803479512</v>
+        <v>17.53525381378298</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.89854951656756</v>
+        <v>29.63601679566595</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.39795572913407</v>
+        <v>43.1286834096291</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>9.500671948138304</v>
+        <v>3.971200644558518</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.67641481764085</v>
+        <v>22.44771008731607</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.88048267914784</v>
+        <v>36.48243097763489</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.87814039786717</v>
+        <v>11.56116614057007</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.91796708354113</v>
+        <v>19.44071002112229</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.28325461107038</v>
+        <v>36.82118216336892</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>9.818071453272164</v>
+        <v>3.05153955682113</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.34272505154956</v>
+        <v>15.56874392635926</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.17787761670873</v>
+        <v>31.44282648939043</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.62663089193813</v>
+        <v>5.918004095852833</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.7010750153078</v>
+        <v>28.4583873124243</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>43.17468142270783</v>
+        <v>55.15329859425601</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.53266983282199</v>
+        <v>35.66240515261485</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>45.14874549327127</v>
+        <v>42.76724677788648</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>49.96085844395365</v>
+        <v>70.16059160324318</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.61549424251388</v>
+        <v>16.68374815084772</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.37368800537234</v>
+        <v>37.87185530265553</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>45.86944579545138</v>
+        <v>54.01855578067861</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>11.99407588129549</v>
+        <v>2.266074845377887</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.99477829321655</v>
+        <v>-1.681694076861369</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.53427032460483</v>
+        <v>5.139109049202659</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>7.510480373081581</v>
+        <v>-4.799983448546843</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.69454111901889</v>
+        <v>1.074436515859968</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.61554279460903</v>
+        <v>2.259245484566339</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.72784168770146</v>
+        <v>-5.166896794163772</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>33.79688670163911</v>
+        <v>11.64978189173847</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.427885580871</v>
+        <v>12.51477864958851</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.16158445797217</v>
+        <v>8.051276376440445</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>41.46394612349069</v>
+        <v>12.06305937845918</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>45.52413288666662</v>
+        <v>15.7395587865586</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.33452433991254</v>
+        <v>-2.33046967717134</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.19416128757244</v>
+        <v>-1.079069218043852</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>41.14021652576491</v>
+        <v>-1.797493692319687</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.28211011158437</v>
+        <v>17.49043316592327</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.77045202110899</v>
+        <v>36.93822163667573</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.31207438384089</v>
+        <v>38.84330695505379</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.643073568493683</v>
+        <v>4.879876940532878</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.27598604274799</v>
+        <v>26.93059492377713</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.30534115639256</v>
+        <v>32.96222718530497</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>19.1960110901553</v>
+        <v>9.447170379721886</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.79156615466204</v>
+        <v>50.91486872532984</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.39759005613669</v>
+        <v>58.21422816268547</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.71010870925909</v>
+        <v>48.52248218479556</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>44.60403844852987</v>
+        <v>58.69735736134217</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.78245721563953</v>
+        <v>62.36331181643429</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>15.89738100223203</v>
+        <v>17.24899443296814</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.65536034080654</v>
+        <v>52.74675432115619</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.37573428196927</v>
+        <v>53.35411584019192</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.56224259828264</v>
+        <v>18.763859867352</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.0913149900664</v>
+        <v>38.9895182094259</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.02867458015993</v>
+        <v>46.73574012060689</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>15.22574606645582</v>
+        <v>2.642909793352377</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.3606669448231</v>
+        <v>32.6724204633544</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>40.67713306817669</v>
+        <v>36.98721840708447</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.28800939748619</v>
+        <v>7.713462375571655</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.8549727473837</v>
+        <v>60.63009025751769</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>50.90582066715089</v>
+        <v>70.04078109357718</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.16885184195793</v>
+        <v>66.54824404358217</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.37790995684463</v>
+        <v>78.68602996785296</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>57.8861913639596</v>
+        <v>82.48821252735569</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.43777713778719</v>
+        <v>14.29559663800048</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.83241115979708</v>
+        <v>66.39747442313798</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>52.87007241296172</v>
+        <v>68.66720843904845</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-2.527472189235493</v>
+        <v>13.41189612228798</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.64862208967902</v>
+        <v>13.42309409881722</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.24512175977116</v>
+        <v>15.29231275575338</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-6.975505579720074</v>
+        <v>2.543431923399137</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.281273890442794</v>
+        <v>12.88536830877681</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.25629728508899</v>
+        <v>12.03142750312374</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0.971904570984071</v>
+        <v>9.514854232127792</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.20180135104477</v>
+        <v>24.4395061890706</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.88507145786969</v>
+        <v>23.64822358465992</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.90884375319756</v>
+        <v>24.33519109088619</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.82368971388393</v>
+        <v>28.64685760953318</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.98902854309158</v>
+        <v>30.47903903878271</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-0.705208223340982</v>
+        <v>11.90208518669584</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.13301206083437</v>
+        <v>17.7439100899276</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.24742836049925</v>
+        <v>17.48486670959481</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-0.5301462812782596</v>
+        <v>5.307217641794754</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.12154142745056</v>
+        <v>8.880057324754429</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.77612167833729</v>
+        <v>17.02357510115763</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-6.195324405786986</v>
+        <v>-3.49846126497992</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.48526442546166</v>
+        <v>1.237777056829099</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>16.63186747430807</v>
+        <v>13.21604785358714</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>2.006857635996464</v>
+        <v>-1.759156024160855</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>18.75365956053734</v>
+        <v>9.232852460220524</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.46996835707564</v>
+        <v>27.64064917468766</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>19.11192848069891</v>
+        <v>13.574791367243</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.61768270150834</v>
+        <v>21.03402664831001</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.92925754386666</v>
+        <v>30.06719330093557</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>0.5022626093434095</v>
+        <v>-0.9310821357450365</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.2613640086635</v>
+        <v>11.78868453271547</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.18108254104671</v>
+        <v>19.12538158332401</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>6.706034473668819</v>
+        <v>16.30704854352915</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.51984189275404</v>
+        <v>27.00148064643655</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.47396349835498</v>
+        <v>32.50535583452329</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.376239579045484</v>
+        <v>0.573384070739781</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.70236642517691</v>
+        <v>18.74956413764916</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.03782098478226</v>
+        <v>22.92125045115209</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>11.25469712389087</v>
+        <v>5.866098041050495</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.09421228332737</v>
+        <v>37.40518319482797</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.15405146510942</v>
+        <v>48.94162946457787</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.68561579347809</v>
+        <v>44.57422403056262</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>38.53368348316093</v>
+        <v>48.6179935788078</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.11823985004425</v>
+        <v>59.89265299699655</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>9.045200142973059</v>
+        <v>11.46638482219125</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.55479814081068</v>
+        <v>40.14834243225731</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.70559969384093</v>
+        <v>43.62125332072181</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-0.7743262074509829</v>
+        <v>5.164662615120239</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.37047539923767</v>
+        <v>1.998211787596652</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.67048238324195</v>
+        <v>0.1676295797297378</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-5.385051705896403</v>
+        <v>-0.8815130548831398</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.735697398563875</v>
+        <v>1.461343200770759</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.42758317238004</v>
+        <v>-0.7936590299185262</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.236969340061396</v>
+        <v>5.714438227804141</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.43886669137579</v>
+        <v>8.322001052322502</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.81907242145594</v>
+        <v>3.845291368001046</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.99743585485556</v>
+        <v>5.635205356876003</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.4455736392339</v>
+        <v>4.379205543326311</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.44726892439283</v>
+        <v>6.905610016998242</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.4676534391205109</v>
+        <v>2.679480059342932</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.10621838164845</v>
+        <v>6.311463760218768</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.71346420452162</v>
+        <v>1.702866939503139</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>1.364610545644672</v>
+        <v>0.1692257676151421</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.00750603548671</v>
+        <v>0.160663055933906</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.35807925920825</v>
+        <v>0.09313656422147787</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.350421513694874</v>
+        <v>-2.792368527178507</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.22671534857551</v>
+        <v>-4.352969348310641</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.07565376560971</v>
+        <v>1.373598256975679</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.523008741431273</v>
+        <v>-2.265482088440017</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.26328411801859</v>
+        <v>1.125675128701026</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.66972444353861</v>
+        <v>6.678339912371278</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.45067144773217</v>
+        <v>4.84034969017797</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.47763211099674</v>
+        <v>6.720699348564477</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.62255298050525</v>
+        <v>7.781238692598183</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.873083626864247</v>
+        <v>-3.113019525179443</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.42710463626768</v>
+        <v>3.378773689641083</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.86191707244375</v>
+        <v>2.869295706294878</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.277208090961686</v>
+        <v>17.63549201278085</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.99173519017918</v>
+        <v>20.66707781096652</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.64334782282213</v>
+        <v>22.25988619656822</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.823822793328031</v>
+        <v>4.598635289432185</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.93291888424152</v>
+        <v>12.43307007726741</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.97840741856589</v>
+        <v>15.19761289902907</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>12.33275719287523</v>
+        <v>8.578969746844297</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.07648228618365</v>
+        <v>28.4416520269174</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.82699810359056</v>
+        <v>32.80716926677256</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.52052323111598</v>
+        <v>31.13602591260871</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.84686517628055</v>
+        <v>31.77869608809711</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.2577031618227</v>
+        <v>39.10846473401374</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.03384785780028</v>
+        <v>16.33612888113867</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.20382924103176</v>
+        <v>28.69473827991512</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.8656455696209</v>
+        <v>30.53019455954692</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.28772311307999</v>
+        <v>22.37795976668476</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.37751547219115</v>
+        <v>30.82798555536496</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.38606428449966</v>
+        <v>38.79390639804204</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.91930034772729</v>
+        <v>4.40095837682156</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.98333061139571</v>
+        <v>23.53936105422342</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>40.46681336862325</v>
+        <v>28.64006796488388</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.63183348713064</v>
+        <v>14.28987099353316</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>43.78646170932603</v>
+        <v>45.09673358117406</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>49.88042762702764</v>
+        <v>49.61873276099728</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.0345541125922</v>
+        <v>44.32513319068487</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>51.06367395941616</v>
+        <v>49.85187366035083</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>55.50617603058731</v>
+        <v>52.59682992684796</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.41662258764366</v>
+        <v>30.324798903</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.1833288452342</v>
+        <v>52.57816643628871</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>51.85128925599409</v>
+        <v>61.41251606305225</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.48231679259477</v>
+        <v>13.96200353652947</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.18192295762878</v>
+        <v>24.97748931632688</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>48.20748698267795</v>
+        <v>30.06140510363024</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.74388811630019</v>
+        <v>-2.328133646317152</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.38609841818849</v>
+        <v>8.825867009122614</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>43.00369352156917</v>
+        <v>15.33658836185903</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.78312009892406</v>
+        <v>3.329008342999746</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>46.5891731192507</v>
+        <v>26.15584315982121</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>52.67436229894204</v>
+        <v>37.89785398045069</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>45.29998052402581</v>
+        <v>29.72446776489031</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>54.01739996128937</v>
+        <v>36.32450481646208</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>58.58527244610251</v>
+        <v>42.4243245524828</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.54189460594059</v>
+        <v>16.31879183550624</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.44355990389116</v>
+        <v>39.80692305973245</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>54.84451904846925</v>
+        <v>46.03117103425055</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.20308431331512</v>
+        <v>24.31781433941751</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>48.99319095519132</v>
+        <v>36.93981616087153</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>55.37880928157117</v>
+        <v>46.2704447887881</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.84463887687602</v>
+        <v>3.003245600025043</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.0739355870204</v>
+        <v>23.45240443270086</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>50.92815659118402</v>
+        <v>28.72222990910939</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.49834331548996</v>
+        <v>12.43829102988792</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>55.32158342401083</v>
+        <v>48.03044954462162</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>61.81115987304928</v>
+        <v>60.8485570535269</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.41654530838848</v>
+        <v>60.73666522683877</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>63.43894867716266</v>
+        <v>67.78583666088713</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>68.33928139346362</v>
+        <v>70.89486580362799</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.68583327841827</v>
+        <v>24.83399976997415</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>55.16807888680823</v>
+        <v>57.36823448254445</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>63.90789786946738</v>
+        <v>67.39708127379085</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>7.670652053603725</v>
+        <v>13.75533856385912</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.74175605080118</v>
+        <v>33.7956782778062</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.54133802485704</v>
+        <v>41.30846785445468</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>3.070047496908916</v>
+        <v>5.667025819955608</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.34594801287611</v>
+        <v>35.14170669490528</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.55586274080289</v>
+        <v>39.38148624086935</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.83280747680811</v>
+        <v>11.09221079471196</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.97027628198297</v>
+        <v>58.05790665969964</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.86444238997698</v>
+        <v>62.6337342765039</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.62386237481107</v>
+        <v>61.93958157762167</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.97842834598563</v>
+        <v>69.23697192426688</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>41.27577894830669</v>
+        <v>68.14765890919979</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>8.906038527804739</v>
+        <v>13.26146938527122</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.93556507717102</v>
+        <v>41.56071817493887</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.24408281172286</v>
+        <v>50.10033713193872</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.834706736578593</v>
+        <v>10.0367080316284</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.3850464751951</v>
+        <v>32.11030951126952</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.20073890085719</v>
+        <v>37.30435441614362</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.009723224689839</v>
+        <v>1.060808143959935</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.71937142340428</v>
+        <v>23.05693675117488</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.05392933311472</v>
+        <v>33.02115209997405</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>13.05035796901441</v>
+        <v>2.368106417208637</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.70757458396862</v>
+        <v>40.95963303288654</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.59149270656943</v>
+        <v>54.54477268264952</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.95775149750209</v>
+        <v>46.49286096640773</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>38.90903532452624</v>
+        <v>55.55104683508623</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.34399860335447</v>
+        <v>64.1505461199305</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>10.25729558081076</v>
+        <v>6.771602157294897</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.18722900657061</v>
+        <v>46.0629526852494</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.27513861456197</v>
+        <v>53.77111554929091</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.39280377406373</v>
+        <v>8.863938351080836</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.00281368306919</v>
+        <v>30.33328835522551</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.20027649175866</v>
+        <v>43.02809647876721</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>10.0064455458349</v>
+        <v>-2.41906875469812</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.2448018778723</v>
+        <v>26.38467042681747</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.85318828818556</v>
+        <v>36.98205514876314</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>20.56819223059241</v>
+        <v>-0.4954601764302176</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.21518241972628</v>
+        <v>46.70153494067569</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>45.52819390782786</v>
+        <v>67.256982497416</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.87822869561059</v>
+        <v>57.38921099933492</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>48.14755408672053</v>
+        <v>70.42448519295897</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>52.89411230511944</v>
+        <v>83.14165609265069</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>17.25725619557756</v>
+        <v>5.264349546703901</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.82968202155332</v>
+        <v>54.97835092931069</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.21741513948855</v>
+        <v>65.92010559479905</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-1.114095767688017</v>
+        <v>9.077766869756406</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.84273610487609</v>
+        <v>25.68344016851323</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.11511282646187</v>
+        <v>36.20486810989262</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-5.767570968921087</v>
+        <v>5.259920188575055</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.29678324728934</v>
+        <v>44.49251289580486</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.03315701315421</v>
+        <v>48.42953362977322</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>3.552399112148244</v>
+        <v>10.95145778178529</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.57968737275433</v>
+        <v>63.36972945083711</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.94611430143343</v>
+        <v>65.97813739306928</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.80566321060856</v>
+        <v>60.12894940767603</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.62338464428145</v>
+        <v>62.15036454800486</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.26792570540597</v>
+        <v>63.60200522713683</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>2.54129238685924</v>
+        <v>10.95508081603851</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>23.60935327983541</v>
+        <v>35.41092362880106</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.72981905284712</v>
+        <v>53.15149733045448</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.545878795367162</v>
+        <v>10.00892700327494</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.10122674300361</v>
+        <v>33.29988094259848</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.37562314604819</v>
+        <v>39.06857505381403</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-3.559539513338414</v>
+        <v>-2.518609072936176</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>15.06498712193542</v>
+        <v>25.29659552693132</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>21.92716913471069</v>
+        <v>33.31720224287734</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>6.129091322496013</v>
+        <v>-0.4054105246147586</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.79815457208628</v>
+        <v>43.96121912373182</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.13865484328051</v>
+        <v>56.92993075084267</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.46718690553346</v>
+        <v>45.3755293458233</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.98879761096676</v>
+        <v>55.6666060024715</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.75316689705856</v>
+        <v>63.90707151376189</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>5.125732292371143</v>
+        <v>5.457029912037509</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.33708801381205</v>
+        <v>47.1021980064077</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.14923750675649</v>
+        <v>55.91805728618091</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>8.779360243091165</v>
+        <v>10.22291685412405</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.45668047111916</v>
+        <v>35.02264728610137</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.12522878919577</v>
+        <v>42.30601504888355</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>3.097302658578542</v>
+        <v>-2.972031031648736</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.35960799148499</v>
+        <v>33.11852091142173</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.48306107546074</v>
+        <v>39.47787373028831</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>14.46612300574033</v>
+        <v>0.5630988838899462</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.18011309453743</v>
+        <v>55.45356779925127</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.96338448588935</v>
+        <v>66.97575185531706</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.23368405368698</v>
+        <v>67.69999062067953</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.07973169917847</v>
+        <v>78.91405619158667</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.20719022288363</v>
+        <v>82.86305356864784</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>12.82042410711461</v>
+        <v>8.470969346313613</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.69426537676308</v>
+        <v>62.6013050096123</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>45.87076954664615</v>
+        <v>71.41583725269649</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-55.52791811712861</v>
+        <v>17.3884290824782</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-35.50222159692763</v>
+        <v>29.20604218686486</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-28.37352082623532</v>
+        <v>37.41270060286952</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-61.27563143655937</v>
+        <v>14.95983444260055</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-41.12658434136728</v>
+        <v>51.84485459775367</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-33.47437961191207</v>
+        <v>54.02739957005821</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-53.70437197246439</v>
+        <v>14.99026051415999</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-33.6155406170899</v>
+        <v>64.03160107837961</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-26.38598780690136</v>
+        <v>63.89629780087485</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-27.31919455843482</v>
+        <v>53.76496202624207</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-17.54147408181901</v>
+        <v>57.98656898599982</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-12.20830213125896</v>
+        <v>58.69690637737141</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-48.78163224308074</v>
+        <v>18.31861576195551</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-25.21827855411333</v>
+        <v>35.29319182895496</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-14.87492726896257</v>
+        <v>53.58888933721877</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-50.68530573768354</v>
+        <v>22.61970210605899</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-29.99580482199627</v>
+        <v>36.76521575380993</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-22.84673582369695</v>
+        <v>40.72176428230759</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-57.98669088727404</v>
+        <v>34.64439790688607</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-37.21655685846895</v>
+        <v>50.91618521216283</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-29.40721583244184</v>
+        <v>58.53226624067604</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-49.96809524934094</v>
+        <v>11.6751220292156</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-29.16748145214138</v>
+        <v>49.43536320761683</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-21.94841803426377</v>
+        <v>58.62411226770784</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-23.55436323350443</v>
+        <v>48.30640050307898</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-13.00089096785738</v>
+        <v>57.03381346245401</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-7.525538474665405</v>
+        <v>60.97857160516189</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-45.10018501247357</v>
+        <v>22.40556771695396</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-20.24324208705876</v>
+        <v>49.60639473168236</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-10.22685933458204</v>
+        <v>56.68616406760911</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-41.22261368712671</v>
+        <v>24.23417392690761</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-19.26366052462557</v>
+        <v>38.12172024480127</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-11.67920724293324</v>
+        <v>42.55516160134879</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-47.96738347311456</v>
+        <v>36.07486379519194</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-25.36040775997272</v>
+        <v>57.97393722603822</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>-17.25506388012245</v>
+        <v>61.59082728748258</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-37.9251131644526</v>
+        <v>16.39785279564618</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-15.93960418061887</v>
+        <v>62.30700892053743</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-8.231039537736034</v>
+        <v>69.11429475992159</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-10.04513087823336</v>
+        <v>71.81050722784025</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>0.8676364012887365</v>
+        <v>79.1767214215031</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>6.751217551996163</v>
+        <v>84.06913754593896</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-34.00237256824675</v>
+        <v>26.4576059906302</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-7.270187857568541</v>
+        <v>60.91203434543854</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3.14507308393781</v>
+        <v>74.87624080877561</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-2.328867142690633</v>
+        <v>8.346237816326205</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>15.58943132986671</v>
+        <v>27.32857984444335</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>21.90157988606583</v>
+        <v>35.7631550005884</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-7.300574973750141</v>
+        <v>1.470082479986534</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>10.74623776550017</v>
+        <v>27.0762028432071</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.50808200205488</v>
+        <v>31.79480014868122</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.571640147307487</v>
+        <v>9.014518335549251</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>19.56468434695338</v>
+        <v>52.92233390424548</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.97652451852129</v>
+        <v>56.76373465337733</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.53845276254255</v>
+        <v>60.07508191045687</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.35497948856698</v>
+        <v>62.60321859255393</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.91621172338606</v>
+        <v>64.48701301203953</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-0.004827877055772589</v>
+        <v>6.974542582121526</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>21.02179275427697</v>
+        <v>41.11962027500199</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.10061105239151</v>
+        <v>44.93412490388893</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>0.9072519801414387</v>
+        <v>10.13204850239753</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>19.36544406229466</v>
+        <v>32.99561590645048</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.68101846227595</v>
+        <v>36.84312474367508</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-5.390545142430986</v>
+        <v>2.167064633134093</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.15535999105429</v>
+        <v>24.9904247567546</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.03569430142096</v>
+        <v>31.76740630419246</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.817492850116125</v>
+        <v>3.702747539032938</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.39260122267976</v>
+        <v>41.23225750290827</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.77948684893169</v>
+        <v>54.73501010991933</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.86258074473746</v>
+        <v>45.33609648786313</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.33227116535663</v>
+        <v>54.34158700055002</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.02736233391166</v>
+        <v>61.29898183332085</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>2.29840658208126</v>
+        <v>5.383530967268033</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.342202682828</v>
+        <v>42.98002217453264</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.15792432020848</v>
+        <v>51.97781457906248</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>6.774559985734982</v>
+        <v>10.82695960100532</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.37743411203778</v>
+        <v>32.39839232295301</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.11079002637974</v>
+        <v>42.96647080051581</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>0.9325618893526517</v>
+        <v>0.2379484111226766</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>21.12882877341382</v>
+        <v>28.53440754632107</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.31107126875955</v>
+        <v>37.05371513314533</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>11.77362403213403</v>
+        <v>3.599990725829574</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.41879225738462</v>
+        <v>48.022124082605</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.27389276319732</v>
+        <v>66.67059272243796</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.30868670511992</v>
+        <v>60.09541275129999</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.12950070726509</v>
+        <v>73.10835336978472</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.18566601568979</v>
+        <v>83.04568203416798</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>9.685319122555402</v>
+        <v>5.798181571850026</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.48271300437075</v>
+        <v>58.31140796730153</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.6422896922235</v>
+        <v>70.60296622405957</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-0.2510201177916471</v>
+        <v>11.59654785896113</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>15.67668302478604</v>
+        <v>11.37395030453416</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>21.60124537312662</v>
+        <v>15.57873211926436</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-4.69240313652746</v>
+        <v>1.580212886066558</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.23408579955788</v>
+        <v>12.72652820450936</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.61281756744807</v>
+        <v>13.71457390508127</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>3.592703494136703</v>
+        <v>8.970367969553827</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.57740300419598</v>
+        <v>25.58410018596012</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.58769944440434</v>
+        <v>27.80253763330557</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.40691698467634</v>
+        <v>23.93102087957268</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.23159779576886</v>
+        <v>27.62305061161817</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.67636627297527</v>
+        <v>30.15511342118171</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>2.180901102164153</v>
+        <v>9.343755373239379</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.8193462283977</v>
+        <v>17.03316401868518</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.38249727385722</v>
+        <v>20.1381149592306</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>3.303099466592638</v>
+        <v>8.247193737454324</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.83706364334333</v>
+        <v>19.94564522804631</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.8044360499316</v>
+        <v>31.36814591815036</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-2.441193350489149</v>
+        <v>0.2415383089774146</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.05441478849216</v>
+        <v>11.43360441726562</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.59338623057882</v>
+        <v>24.90887387256748</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>6.187156953788094</v>
+        <v>3.546577262253752</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.81996096196825</v>
+        <v>22.85541493373105</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.84814734118331</v>
+        <v>45.65790008187983</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>23.09821706538714</v>
+        <v>27.77790464343174</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.60665872722736</v>
+        <v>38.51050891317209</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.18768737505188</v>
+        <v>52.45411019806062</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>4.741788541504455</v>
+        <v>4.141537875041369</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.52391247529776</v>
+        <v>31.84746541007513</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.85200339457369</v>
+        <v>45.4687671041803</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>9.294795701434698</v>
+        <v>16.35854119135467</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.93005271070851</v>
+        <v>29.12468010919843</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.23882608410732</v>
+        <v>42.27094178519911</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3.911599683365932</v>
+        <v>2.57521016269909</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.00480449394574</v>
+        <v>21.42128361117706</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.76810517330492</v>
+        <v>33.7453587119182</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.13978409122061</v>
+        <v>7.459227295900323</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.80092993832222</v>
+        <v>37.87731072581225</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.21336588783871</v>
+        <v>58.80134223441355</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.39840673550346</v>
+        <v>47.42489027652333</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.23175974943855</v>
+        <v>55.78863539805366</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.13274056141736</v>
+        <v>69.01508182662931</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>12.08465001907341</v>
+        <v>7.911077547194513</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.46494191657344</v>
+        <v>43.52701306560273</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.11444523261469</v>
+        <v>61.57771798492078</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-56.59591413628328</v>
+        <v>15.14302605071018</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-36.67655466672646</v>
+        <v>20.73705528853372</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>-29.51946671304948</v>
+        <v>27.54337982561354</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-62.38158043312629</v>
+        <v>0.2020652421674889</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-42.34762598738786</v>
+        <v>27.00873601439464</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-34.66351170726705</v>
+        <v>30.46970017079495</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-54.92794247162901</v>
+        <v>11.07388612044053</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-34.94620326198324</v>
+        <v>47.35225996377254</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-27.68819116537038</v>
+        <v>48.82203825990331</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-28.54543912378951</v>
+        <v>35.50359281117618</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-18.81269266650681</v>
+        <v>40.57246896951506</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-13.46149337967924</v>
+        <v>44.77333878890018</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-49.85027298023761</v>
+        <v>15.37002042097187</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-26.40232486363071</v>
+        <v>33.6192664055731</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-16.0315395882477</v>
+        <v>45.15703605656923</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-51.79077804087678</v>
+        <v>10.61267191774439</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-31.20672458495874</v>
+        <v>23.2378534688925</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-24.02416753507858</v>
+        <v>33.68296501362816</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-59.12725090759258</v>
+        <v>4.360923229935221</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-38.47148074900275</v>
+        <v>18.38392378899566</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-30.62526770875759</v>
+        <v>35.86214297417244</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-51.22684653811267</v>
+        <v>0.9085439081662443</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-30.53241004156781</v>
+        <v>31.02993831806458</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-23.27953040578943</v>
+        <v>48.42505111483135</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-24.81190478099456</v>
+        <v>29.08689149440382</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-14.30340019449138</v>
+        <v>40.23560709471741</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-8.80779609452855</v>
+        <v>54.13472054289743</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-46.20775249511593</v>
+        <v>6.80584445239317</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-21.46345356616786</v>
+        <v>35.49059111790162</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-11.41437999051736</v>
+        <v>45.04865551453911</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-42.18642230355567</v>
+        <v>12.71459312591196</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-20.32549264113982</v>
+        <v>23.91548480241534</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-12.7123829789627</v>
+        <v>32.8240080125795</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-48.95488189681616</v>
+        <v>2.861092147493455</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-26.45389139834219</v>
+        <v>22.24489038949514</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-18.31512808403479</v>
+        <v>33.12685713697665</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-39.02555222213809</v>
+        <v>3.337922424836837</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-17.13864415747908</v>
+        <v>40.73788067386204</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-9.401645499809373</v>
+        <v>53.81960135161376</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-11.15326376903183</v>
+        <v>47.53884769404361</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-0.2832187041307854</v>
+        <v>55.86822474998672</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>5.618637369615325</v>
+        <v>67.98922681533487</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-34.96387590905329</v>
+        <v>7.156969483714182</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-8.340807729694177</v>
+        <v>37.37305307665581</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2.10375362793825</v>
+        <v>56.20929039935868</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>10.87077507299091</v>
+        <v>14.72571425098774</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.4649640146348</v>
+        <v>26.13629315136432</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.25355852201486</v>
+        <v>36.26799676245923</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>7.17265634966159</v>
+        <v>2.547925906996849</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.9561178090033</v>
+        <v>40.39211193283708</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.16356290742362</v>
+        <v>46.07227926124116</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>16.31549011082419</v>
+        <v>12.26011237615971</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>32.94695724327375</v>
+        <v>66.02731467089687</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.81619060299378</v>
+        <v>65.86344885693889</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.87710090068324</v>
+        <v>63.53567696948092</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>41.0629589961241</v>
+        <v>62.12785233814468</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>45.22352248122255</v>
+        <v>67.69510599614831</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.7133504640417</v>
+        <v>14.13396774589339</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.10214991308991</v>
+        <v>22.06752114531829</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.65621769969253</v>
+        <v>64.97959080333253</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>14.03050823701316</v>
+        <v>22.51150981925207</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>31.15410502891082</v>
+        <v>37.04345502045931</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.93021579320332</v>
+        <v>39.80081318869425</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>8.946382468116184</v>
+        <v>5.483959438431331</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.21721675475617</v>
+        <v>29.8382378460816</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.52189983805597</v>
+        <v>36.41726378242343</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>18.43067693401341</v>
+        <v>9.161007180041512</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>35.63245904920054</v>
+        <v>49.55398619000658</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>41.46333634869147</v>
+        <v>58.67683080454658</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.07785243951946</v>
+        <v>51.55015256985543</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>43.90280401984978</v>
+        <v>58.26864640485378</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>48.15662666425732</v>
+        <v>64.30041341499813</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>15.88005090030083</v>
+        <v>20.34127503434407</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.29890913347588</v>
+        <v>49.36986560657725</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>44.53818195851829</v>
+        <v>57.1223336202187</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.49656871344929</v>
+        <v>23.49345916390161</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.67686868047454</v>
+        <v>37.31299507775746</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.8058285286813</v>
+        <v>43.59474753019848</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>14.8965329927624</v>
+        <v>4.526703353618675</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.69561584666818</v>
+        <v>33.90495449974813</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.23821222340877</v>
+        <v>39.82438802564066</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.88843921577896</v>
+        <v>10.97402691377775</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>44.07635877047688</v>
+        <v>59.59471348013474</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.3043624341491</v>
+        <v>70.97179543377764</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>43.89920586720525</v>
+        <v>69.52970185764802</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>53.03470251735838</v>
+        <v>74.84481323776312</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>57.62725634545897</v>
+        <v>79.91957365477863</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>22.75669487415553</v>
+        <v>17.80228305382362</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>44.77370035428198</v>
+        <v>58.851246526089</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>53.31606712141016</v>
+        <v>68.96601532309263</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>3.024336818216707</v>
+        <v>7.683344776054359</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>20.78127411246631</v>
+        <v>25.39919374746639</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>27.04404780032664</v>
+        <v>32.25852397494319</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-1.665652874647025</v>
+        <v>2.452861832171195</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.22157798827829</v>
+        <v>29.39778122849399</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.92915065124134</v>
+        <v>31.59285776407743</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.348591402669328</v>
+        <v>8.541738341710218</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.18011848739169</v>
+        <v>50.69877635974213</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.54272454114017</v>
+        <v>54.63609166449169</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.65332392809866</v>
+        <v>55.48535725825845</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.42586482357463</v>
+        <v>61.67159653879254</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.92703649783937</v>
+        <v>59.97064139722153</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.199148966079022</v>
+        <v>6.161813440773198</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.10468044906445</v>
+        <v>38.79922754609723</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.07756956425435</v>
+        <v>40.36677173861561</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>6.321721903845365</v>
+        <v>9.454583257682341</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>24.6232337665622</v>
+        <v>32.69401363825062</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.88208882431974</v>
+        <v>35.83030592113995</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>0.2947386673269872</v>
+        <v>4.366034464786804</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.68797852257499</v>
+        <v>28.01487560784318</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.50542111221426</v>
+        <v>35.34431516868455</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>9.655881690845554</v>
+        <v>7.957481644112253</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.07361645343552</v>
+        <v>44.65233326518403</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.40397796237666</v>
+        <v>59.93980390221057</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.03067930101431</v>
+        <v>49.22232395263961</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>37.46264227306168</v>
+        <v>59.6686747665315</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.08303076417051</v>
+        <v>66.01629131268487</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.546634832714638</v>
+        <v>7.616334683717245</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.47561929061526</v>
+        <v>50.612689464856</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>38.17647474636414</v>
+        <v>54.67910958870959</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>11.74305306736421</v>
+        <v>12.50526604731234</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.15349956948429</v>
+        <v>31.15276067716824</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>37.83175306923859</v>
+        <v>40.89293594063635</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>6.149766137178425</v>
+        <v>1.05299976731698</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.15175615661267</v>
+        <v>26.73777707701437</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.27544660806635</v>
+        <v>36.22993469141495</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>17.10605899416309</v>
+        <v>5.685136463267174</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.55841202999807</v>
+        <v>44.14228265726943</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>43.35776936245424</v>
+        <v>64.36945443126258</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.98380463585337</v>
+        <v>60.49896473865202</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>46.74437619647598</v>
+        <v>70.37201143507654</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>51.73598638788076</v>
+        <v>81.6791264492238</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>14.48960667664148</v>
+        <v>5.681126652584485</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.11193830566788</v>
+        <v>51.73967694498432</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>47.167158085806</v>
+        <v>65.25734941985093</v>
       </c>
     </row>
   </sheetData>
